--- a/doc/车挖挖一期待修复问题.xlsx
+++ b/doc/车挖挖一期待修复问题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rejiejay\YCPD_Designer\其他项目前端\福利共享平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BA13F7-E91A-49E6-89A7-9FAE4F4350A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7577E5B-0B20-4A43-B385-A9E20D15417A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28656" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28656" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,45 +633,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/doc/车挖挖一期待修复问题.xlsx
+++ b/doc/车挖挖一期待修复问题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rejiejay\YCPD_Designer\其他项目前端\福利共享平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7577E5B-0B20-4A43-B385-A9E20D15417A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F4BD7D-3226-477C-91C2-7463247287DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28656" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28656" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -675,73 +675,73 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -829,17 +829,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -899,17 +899,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>6</v>
       </c>
     </row>

--- a/doc/车挖挖一期待修复问题.xlsx
+++ b/doc/车挖挖一期待修复问题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rejiejay\YCPD_Designer\其他项目前端\福利共享平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F4BD7D-3226-477C-91C2-7463247287DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BE0D29-6597-47A6-9090-8A46F795A6E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28656" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -913,17 +913,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>6</v>
       </c>
     </row>
